--- a/medicine/Enfance/Cressida_Cowell/Cressida_Cowell.xlsx
+++ b/medicine/Enfance/Cressida_Cowell/Cressida_Cowell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cressida Cowell est une autrice britannique de livres pour enfants, née le 15 avril 1966 à Londres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cressida Cowell est une autrice britannique de livres pour enfants, née le 15 avril 1966 à Londres.
 Elle est connue pour la série de romans Harold et les Dragons (en), qui a été adaptée en film d'animation en 2010 par DreamWorks Animation sous le titre Dragons. Le succès du film donnera lieu à la création d'une franchise.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille de Michael Hare (2e vicomte Blakenham).
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Harold et les Dragons
-Comment dresser votre dragon ?, J'ai lu, 2004 ((en) How To Train Your Dragon, Hodder &amp; Stoughton, 2003), trad. Antoine Pinchot
+          <t>Série Harold et les Dragons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comment dresser votre dragon ?, J'ai lu, 2004 ((en) How To Train Your Dragon, Hodder &amp; Stoughton, 2003), trad. Antoine Pinchot
 Comment devenir un pirate ?, Casterman, 2005 ((en) How To Be A Pirate, Hodder &amp; Stoughton, 2004), trad. Antoine Pinchot
 Comment parler le dragonais ?, Casterman, 2005 ((en) How To Speak Dragonese, Hodder &amp; Stoughton, 2005), trad. Antoine Pinchot
 Comment dompter une brute complètement givrée ?, Casterman, 2007 ((en) How To Cheat A Dragon's Curse, Hodder &amp; Stoughton, 2006), trad. Antoine Pinchot
@@ -558,17 +577,119 @@
 (en) How To Betray A Dragon's Hero, 2013Inédit à ce jour en français.
 (en) How to Fight a Dragon's Fury, 2015Inédit à ce jour en français.
 Guide des dragons tueurs, Casterman, 2009 ((en) A Hero's Guide To Deadly Dragons, Hodder &amp; Stoughton, 2008), trad. Antoine Pinchot
-(en) The Incomplete Book of Dragons, 2014Inédit à ce jour en français.
-Série Emily Brown
-Ce lapin appartient à Emily Brown, Casterman, 2007 ((en) That Rabbit Belongs to Emily Brown, Orchard Books (en), 2006), trad. Rémi Stefani
+(en) The Incomplete Book of Dragons, 2014Inédit à ce jour en français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cressida_Cowell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_Cowell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Emily Brown</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce lapin appartient à Emily Brown, Casterman, 2007 ((en) That Rabbit Belongs to Emily Brown, Orchard Books (en), 2006), trad. Rémi Stefani
 Emily Brown et la chose, Casterman, 2008 ((en) Emily Brown and the Thing), trad. Rémi Stefani
 Allô allô Emily Brown, Casterman, 2010 ((en) Emily Brown and the Elephant Emergency), trad. Rémi Stefani
-(en) Cheer Up Your Teddy Bear, Emily Brown!Inédit à ce jour en français.
-Série Le Temps des magiciens
-Le Magicien, la guerrière et la petite cuillère, Hachette Jeunesse, 2017 ((en) The Wizards of Once, 2017)
-L'Éveil des sorciers, Hachette Jeunesse, 2018 ((en) Twice Magic, 2018)
-Autres livres
-Mais qu'allons nous faire de ce terrible bébé ?, Casterman, 2000 ((en) What Shall We Do with the Boo-Hoo Baby), trad. Héloïse Antoine - illustrations de Ingrid Godon
+(en) Cheer Up Your Teddy Bear, Emily Brown!Inédit à ce jour en français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cressida_Cowell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_Cowell</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Le Temps des magiciens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Magicien, la guerrière et la petite cuillère, Hachette Jeunesse, 2017 ((en) The Wizards of Once, 2017)
+L'Éveil des sorciers, Hachette Jeunesse, 2018 ((en) Twice Magic, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cressida_Cowell</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cressida_Cowell</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mais qu'allons nous faire de ce terrible bébé ?, Casterman, 2000 ((en) What Shall We Do with the Boo-Hoo Baby), trad. Héloïse Antoine - illustrations de Ingrid Godon
 Super Suzy : à l'intérieur, un diplôme de Super Soi-même t'attend, Kaléidoscope, 2003 ((en) Super Sue), trad. Élisabeth Duval
 (en) Little Bo Peep’s Troublesome SheepInédit à ce jour en français.
 (en) Don’t Do That Kitty KilroyInédit à ce jour en français.
